--- a/4 Sampling and Confidence Intervals/Homework/JulyBlythHW.xlsx
+++ b/4 Sampling and Confidence Intervals/Homework/JulyBlythHW.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\edxtake2module1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepo\Essential-Statistics-for-Data-Analysis-using-Excel\4 Sampling and Confidence Intervals\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t> </t>
   </si>
@@ -36,12 +36,18 @@
   </si>
   <si>
     <t>3. 25 Colon cancer patients were given a simple blood test that was supposed to identify simply and painlessly if the patients had colon cancer.  The blood test successfully identified the cancer in all 25 patients. Based on these results you are 99% sure the actual success rate for the test is between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha = </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,79 +395,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C5:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:3" ht="90" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="3:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:3" ht="105" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" ht="135" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f>F21^(1/F20)</f>
+        <v>0.98808858028501934</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>1-E23</f>
+        <v>1.1911419714980664E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
